--- a/data/2024/ssg/3,1_DE-206+DE-206H.xlsx
+++ b/data/2024/ssg/3,1_DE-206+DE-206H.xlsx
@@ -163,7 +163,7 @@
     <t>NL</t>
   </si>
   <si>
-    <t>0</t>
+    <t>547</t>
   </si>
   <si>
     <t>2597249-2</t>
@@ -756,10 +756,10 @@
         <v>32</v>
       </c>
       <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="s">
         <v>49</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:25">
